--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_718.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_718.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d10198308-Reviews-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>52</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Staybridge-Suites-Anaheim-At-The-Park.h15273341.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_718.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_718.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,736 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r594280614-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>29092</t>
+  </si>
+  <si>
+    <t>10198308</t>
+  </si>
+  <si>
+    <t>594280614</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Close to Disneyland but not walking distance</t>
+  </si>
+  <si>
+    <t>Stayed for 4 nights at this hotel. While this place is close to Disneyland, you need a shuttle or Uber to reach the park. The hotel is neat with large spacious rooms. There is no restaurant in the hotel but you have a fully equipped kitchen with microwave, stove, dishwasher and fridge. Staff is minimal and pool is not well maintained. Breakfast is usual affair but they start picking up stuff as soon as the breakfast end time is reached (unlike other Holiday Inn properties). The Hotel has a convenience store located at the opposite gas station but no restaurants or eating joints around. Good place for a family stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Stayed for 4 nights at this hotel. While this place is close to Disneyland, you need a shuttle or Uber to reach the park. The hotel is neat with large spacious rooms. There is no restaurant in the hotel but you have a fully equipped kitchen with microwave, stove, dishwasher and fridge. Staff is minimal and pool is not well maintained. Breakfast is usual affair but they start picking up stuff as soon as the breakfast end time is reached (unlike other Holiday Inn properties). The Hotel has a convenience store located at the opposite gas station but no restaurants or eating joints around. Good place for a family stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r591771759-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>591771759</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Went above and beyond to make it a wonderful stay.</t>
+  </si>
+  <si>
+    <t>We we’re up since 3:00 a.m. to fly from Texas to Orange County, we arrived at the hotel at 9:15 and to my amazement our room was ready. Dana said we could grab breakfast before they shutdown  at 9:30. What a blessing we were able to eat and rest for a bit before heading to Disneyland. Dana was always willing to help however she could. The evening crew were just helpful. The hotel is an easy walk to Disneyland and we would take Lyft back to the hotel in the evenings, never had to rent a car! The breakfast was very very good. Monday Tuesday Wednesday they had a light dinner as well, another way I saved money. The room was clean and comfy bed. Highly recommend, good location, good food close to the park. Also, we were able see the fireworks from our window better view than when we were at the park.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>We we’re up since 3:00 a.m. to fly from Texas to Orange County, we arrived at the hotel at 9:15 and to my amazement our room was ready. Dana said we could grab breakfast before they shutdown  at 9:30. What a blessing we were able to eat and rest for a bit before heading to Disneyland. Dana was always willing to help however she could. The evening crew were just helpful. The hotel is an easy walk to Disneyland and we would take Lyft back to the hotel in the evenings, never had to rent a car! The breakfast was very very good. Monday Tuesday Wednesday they had a light dinner as well, another way I saved money. The room was clean and comfy bed. Highly recommend, good location, good food close to the park. Also, we were able see the fireworks from our window better view than when we were at the park.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r585904418-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>585904418</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Card was charged twice so please check your billing</t>
+  </si>
+  <si>
+    <t>I had booked this hotel way back in October 2017 for our stay in June for an Advance payment deal. I’m Glad the stay was only for just one night.
+Two weeks before the trip, I’d noticed that my credit card was being charged twice. Phone up the front desk from Singapore. The lady on the line was apologetic and told me that someone from the day shift would be able to check and call me back on my phone. No one did.
+So, I wrote an email to the hotel reservation desk and received a reply two days, denying that they had charged me twice but the fees were held back. Obviously, the person replying to the email was not reading the emails or looking at the screenshot I had sent. The charges were made on two occasions within the same day and have already been reflected on my bills! Anyway, there was NO Further reply when I made an official complaint on the lack of professionalism on the reply from the hotel. I have expected better from the IHG hotel chain. 
+On 1st of June, when my family and I arrived at the hotel, the gentleman at front desk, whose name I recognised as the person replying the email, told me that the fees have been waived and I should check with my bank a few days later. There was NO apology, not a word of sorry.
+That...I had booked this hotel way back in October 2017 for our stay in June for an Advance payment deal. I’m Glad the stay was only for just one night.Two weeks before the trip, I’d noticed that my credit card was being charged twice. Phone up the front desk from Singapore. The lady on the line was apologetic and told me that someone from the day shift would be able to check and call me back on my phone. No one did.So, I wrote an email to the hotel reservation desk and received a reply two days, denying that they had charged me twice but the fees were held back. Obviously, the person replying to the email was not reading the emails or looking at the screenshot I had sent. The charges were made on two occasions within the same day and have already been reflected on my bills! Anyway, there was NO Further reply when I made an official complaint on the lack of professionalism on the reply from the hotel. I have expected better from the IHG hotel chain. On 1st of June, when my family and I arrived at the hotel, the gentleman at front desk, whose name I recognised as the person replying the email, told me that the fees have been waived and I should check with my bank a few days later. There was NO apology, not a word of sorry.That was not the end, when we got to our room, and I spotted “booger” on the TV program list.... (yikes). The bed on the left, had obvious speckles of blood on the inner sheet, as well as one of the pillows..... it was disgusting! All of us were suffering from Jet-lag and I really couldn’t spare the effort to call up the front desk for action. At around 9.30pm at night, we were woken up by the loud fireworks from Disneyland... the sound proofing was really bad. On check out at 5am the next morning, I told the polite lady at the front desk, that we were not very pleased with the service. I logged into my bank account and showed her my credit card statement, and the amount that was refunded to my card. I have to be at the losing end as there was foreign exchange loss for a mistake, that she told us, was made by the front desk. Apparently, the card was charged by someone in the day and again at the later part of the day by mistake. I told her that from the time we had checked in, no one had actually apologised and I have to bear the exchange losses! Perhaps, A simple word of apology would have made me feel better and I have to remind the hotel of a completely unnecessary mistake. She was professional and apologised profusely but It was too late. If there is a time that we are coming back to Anaheim for holiday again, it is highly unlikely we will be staying here. MoreShow less</t>
+  </si>
+  <si>
+    <t>I had booked this hotel way back in October 2017 for our stay in June for an Advance payment deal. I’m Glad the stay was only for just one night.
+Two weeks before the trip, I’d noticed that my credit card was being charged twice. Phone up the front desk from Singapore. The lady on the line was apologetic and told me that someone from the day shift would be able to check and call me back on my phone. No one did.
+So, I wrote an email to the hotel reservation desk and received a reply two days, denying that they had charged me twice but the fees were held back. Obviously, the person replying to the email was not reading the emails or looking at the screenshot I had sent. The charges were made on two occasions within the same day and have already been reflected on my bills! Anyway, there was NO Further reply when I made an official complaint on the lack of professionalism on the reply from the hotel. I have expected better from the IHG hotel chain. 
+On 1st of June, when my family and I arrived at the hotel, the gentleman at front desk, whose name I recognised as the person replying the email, told me that the fees have been waived and I should check with my bank a few days later. There was NO apology, not a word of sorry.
+That...I had booked this hotel way back in October 2017 for our stay in June for an Advance payment deal. I’m Glad the stay was only for just one night.Two weeks before the trip, I’d noticed that my credit card was being charged twice. Phone up the front desk from Singapore. The lady on the line was apologetic and told me that someone from the day shift would be able to check and call me back on my phone. No one did.So, I wrote an email to the hotel reservation desk and received a reply two days, denying that they had charged me twice but the fees were held back. Obviously, the person replying to the email was not reading the emails or looking at the screenshot I had sent. The charges were made on two occasions within the same day and have already been reflected on my bills! Anyway, there was NO Further reply when I made an official complaint on the lack of professionalism on the reply from the hotel. I have expected better from the IHG hotel chain. On 1st of June, when my family and I arrived at the hotel, the gentleman at front desk, whose name I recognised as the person replying the email, told me that the fees have been waived and I should check with my bank a few days later. There was NO apology, not a word of sorry.That was not the end, when we got to our room, and I spotted “booger” on the TV program list.... (yikes). The bed on the left, had obvious speckles of blood on the inner sheet, as well as one of the pillows..... it was disgusting! All of us were suffering from Jet-lag and I really couldn’t spare the effort to call up the front desk for action. At around 9.30pm at night, we were woken up by the loud fireworks from Disneyland... the sound proofing was really bad. On check out at 5am the next morning, I told the polite lady at the front desk, that we were not very pleased with the service. I logged into my bank account and showed her my credit card statement, and the amount that was refunded to my card. I have to be at the losing end as there was foreign exchange loss for a mistake, that she told us, was made by the front desk. Apparently, the card was charged by someone in the day and again at the later part of the day by mistake. I told her that from the time we had checked in, no one had actually apologised and I have to bear the exchange losses! Perhaps, A simple word of apology would have made me feel better and I have to remind the hotel of a completely unnecessary mistake. She was professional and apologised profusely but It was too late. If there is a time that we are coming back to Anaheim for holiday again, it is highly unlikely we will be staying here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r575850822-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>575850822</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Decent Hotel (No heated Pool)</t>
+  </si>
+  <si>
+    <t>I'm checking out today after 3 nights with my family of 6. 
+I booked this hotel because of the price and location to Disneyland. 
+First off, I didn't book this hotel because of the pool. I knew from the pictures it was nothing great. However I was shocked at how cold it was, and disappointed that my kids couldn't enjoy it on a hot afternoon breaks from Disney (and these are Canadian kids who swim in lakes all summer). Also no hot tub, so even if you did take the plunge you couldn't warm up afterwards. If you have kids who love to swim on  vacations consider a hotel with heated pool. 
+Rooms: 1 bedroom suite was handy for a family.  
+Very clean. 
+The kitchen area allowed us to have snacks and drinks in the room which was nice. 
+Sofa bed isn't very comfortable so don't plan on anyone other than small children sleeping on it. 
+Hotel is not very sound proof. I'm in the living room right now at 7am listening to babies scream, people talking and hotel room doors banging. 
+Breakfast &amp; Social: The breakfast was typical for a hotel breakfast, eggs and either bacon or sausage along with cereal, waffles, muffins, breads and some fruit, etc. Very handy with kids, and a nice to eat quickly before heading to the park. 
+On Mon, Tues, Wed they serve food in the evenings as well. We had the Tacos...I'm checking out today after 3 nights with my family of 6. I booked this hotel because of the price and location to Disneyland. First off, I didn't book this hotel because of the pool. I knew from the pictures it was nothing great. However I was shocked at how cold it was, and disappointed that my kids couldn't enjoy it on a hot afternoon breaks from Disney (and these are Canadian kids who swim in lakes all summer). Also no hot tub, so even if you did take the plunge you couldn't warm up afterwards. If you have kids who love to swim on  vacations consider a hotel with heated pool. Rooms: 1 bedroom suite was handy for a family.  Very clean. The kitchen area allowed us to have snacks and drinks in the room which was nice. Sofa bed isn't very comfortable so don't plan on anyone other than small children sleeping on it. Hotel is not very sound proof. I'm in the living room right now at 7am listening to babies scream, people talking and hotel room doors banging. Breakfast &amp; Social: The breakfast was typical for a hotel breakfast, eggs and either bacon or sausage along with cereal, waffles, muffins, breads and some fruit, etc. Very handy with kids, and a nice to eat quickly before heading to the park. On Mon, Tues, Wed they serve food in the evenings as well. We had the Tacos one night and it was enough to hold everyone over until a later dinner. Location: you could walk to Disneyland, but it's about 35min. That's too far for us with little kids, we took Uber to the park for about $10. And it was easy to get a cab on the way back each night. Tip: go to the downtown Disney entrance in the morning to avoid the huge security lines. There is a nice free laundry room here that was very handy. Overall this was an okay place for the price per night.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>I'm checking out today after 3 nights with my family of 6. 
+I booked this hotel because of the price and location to Disneyland. 
+First off, I didn't book this hotel because of the pool. I knew from the pictures it was nothing great. However I was shocked at how cold it was, and disappointed that my kids couldn't enjoy it on a hot afternoon breaks from Disney (and these are Canadian kids who swim in lakes all summer). Also no hot tub, so even if you did take the plunge you couldn't warm up afterwards. If you have kids who love to swim on  vacations consider a hotel with heated pool. 
+Rooms: 1 bedroom suite was handy for a family.  
+Very clean. 
+The kitchen area allowed us to have snacks and drinks in the room which was nice. 
+Sofa bed isn't very comfortable so don't plan on anyone other than small children sleeping on it. 
+Hotel is not very sound proof. I'm in the living room right now at 7am listening to babies scream, people talking and hotel room doors banging. 
+Breakfast &amp; Social: The breakfast was typical for a hotel breakfast, eggs and either bacon or sausage along with cereal, waffles, muffins, breads and some fruit, etc. Very handy with kids, and a nice to eat quickly before heading to the park. 
+On Mon, Tues, Wed they serve food in the evenings as well. We had the Tacos...I'm checking out today after 3 nights with my family of 6. I booked this hotel because of the price and location to Disneyland. First off, I didn't book this hotel because of the pool. I knew from the pictures it was nothing great. However I was shocked at how cold it was, and disappointed that my kids couldn't enjoy it on a hot afternoon breaks from Disney (and these are Canadian kids who swim in lakes all summer). Also no hot tub, so even if you did take the plunge you couldn't warm up afterwards. If you have kids who love to swim on  vacations consider a hotel with heated pool. Rooms: 1 bedroom suite was handy for a family.  Very clean. The kitchen area allowed us to have snacks and drinks in the room which was nice. Sofa bed isn't very comfortable so don't plan on anyone other than small children sleeping on it. Hotel is not very sound proof. I'm in the living room right now at 7am listening to babies scream, people talking and hotel room doors banging. Breakfast &amp; Social: The breakfast was typical for a hotel breakfast, eggs and either bacon or sausage along with cereal, waffles, muffins, breads and some fruit, etc. Very handy with kids, and a nice to eat quickly before heading to the park. On Mon, Tues, Wed they serve food in the evenings as well. We had the Tacos one night and it was enough to hold everyone over until a later dinner. Location: you could walk to Disneyland, but it's about 35min. That's too far for us with little kids, we took Uber to the park for about $10. And it was easy to get a cab on the way back each night. Tip: go to the downtown Disney entrance in the morning to avoid the huge security lines. There is a nice free laundry room here that was very handy. Overall this was an okay place for the price per night.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r564666594-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>564666594</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Very convenient</t>
+  </si>
+  <si>
+    <t>This hotel is very convenient if you are using the parking structure to go into Disneyland.   You can also walk about a mile to get to Disneyland if you stay in this hotel.  Their rooms are great but their elevator has issues.   The floors aren't described at all.  Good luck trying to figure out which of the 2 elevators takes you to the lobby.   The elevators are also very slow and the service people use them.   We waiting about 20 minutes for ours.  The breakfast is very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Anaheim At The Park, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is very convenient if you are using the parking structure to go into Disneyland.   You can also walk about a mile to get to Disneyland if you stay in this hotel.  Their rooms are great but their elevator has issues.   The floors aren't described at all.  Good luck trying to figure out which of the 2 elevators takes you to the lobby.   The elevators are also very slow and the service people use them.   We waiting about 20 minutes for ours.  The breakfast is very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r562376712-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>562376712</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>Choose the other Staybridge Suites in Anaheim</t>
+  </si>
+  <si>
+    <t>I will start with the positives. I love Staybridge Suites in general and have stayed at these hotels many times. The hotels are clean, the rooms are very nice, the breakfast buffet and the evening "snacks"  are good and convenient when on a trip. 
+After staying at numerous Staybridge Suites, including the older one in Anaheim, we decided to try this one since it is within "walking distance" of Disneyland. If you consider a 40 minute walk within walking distance, then it absolutely is within walking distance. In reality, after walking all over the parks and Downtown Disney, walking back to the hotel was brutal. The option to go back and rest in the afternoon before going back to the park in the evening was out the door with this hotel.
+To make matters worse, we booked 5 months in advance. We booked a 2-bedroom suite (which is what we always book with these hotels, they are amazing and well worth the cost). What we do is have the kids in one room and my husband and I stay in the other room. It's nice because there is a little living-room and kitchen that we can congregate in when someone is napping or getting ready. 
+We get to the hotel, after a 6.5 hour drive, to hear they "over booked" and we were put in 2 rooms. Obviously that doesn't work, we aren't going to put our under 5 year...I will start with the positives. I love Staybridge Suites in general and have stayed at these hotels many times. The hotels are clean, the rooms are very nice, the breakfast buffet and the evening "snacks"  are good and convenient when on a trip. After staying at numerous Staybridge Suites, including the older one in Anaheim, we decided to try this one since it is within "walking distance" of Disneyland. If you consider a 40 minute walk within walking distance, then it absolutely is within walking distance. In reality, after walking all over the parks and Downtown Disney, walking back to the hotel was brutal. The option to go back and rest in the afternoon before going back to the park in the evening was out the door with this hotel.To make matters worse, we booked 5 months in advance. We booked a 2-bedroom suite (which is what we always book with these hotels, they are amazing and well worth the cost). What we do is have the kids in one room and my husband and I stay in the other room. It's nice because there is a little living-room and kitchen that we can congregate in when someone is napping or getting ready. We get to the hotel, after a 6.5 hour drive, to hear they "over booked" and we were put in 2 rooms. Obviously that doesn't work, we aren't going to put our under 5 year old kids in a room across the hall. So my husband and I had to stay in 2 separate rooms, each of us with a kid, and walk between rooms to share the toiletries we packed together. I explained to the staff and was told there was nothing they could do for us. I decided to look for another hotel and came across the Staybridge in the search engine. I looked for the 2-bedroom suite to see if it would pop up, and it didn't. I looked for it all the way to October and somehow it isn't offered at all! Pretty sure we were lied to about this room's existence. I asked to talk to the manager when we were told about rooms on the 1st day, and was told he would call us in the morning. He never did. He never tried to contact us about the matter, bad customer service on his part. So on our last day, literally on our way out of the hotel, I asked to talk to the manager about the matter. One would think the manager would instantly walk out to talk to us and apologize while explaining the situation. Not this manager, he made us wait for him for 10 minutes. When he walked in through the door from outside, I thought he was another employee as he walked up and acted like I was in his way. So I moved out of the way saying "hello" at the same time. He said "can I help you?" I said, "we are waiting to speak with the manager." He said "that's me." Call me old fashioned (I am 31 years old) but I would think the manager would walk up with a smile, put his hand out, and greet his customers while telling us his name. I have no idea what his name even is to this day! He was rude, he acted like we had no reason to be upset, he didn't smile, he acted like we were a bother to him. I wasn't rude t him by the way, I just wanted to talk to him about the matter. To top it off, we recommended this hotel to a friend who also booked the 2-bedroom suite for the same week we were there, and her room was also "over booked' AND she was double charged!To sum it up, Staybridge Suites is a great hotel. We will stay with this hotel chain again. If in the Disneyland area, it will be the other Staybridge Suites hotel, the one on Manchester Ave, the manager there is so friendly and very welcoming! The Staybridge Suites Anaheim at the Park has terrible customer service; I wouldn't risk booking with this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Anaheim At The Park, responded to this reviewResponded March 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2018</t>
+  </si>
+  <si>
+    <t>I will start with the positives. I love Staybridge Suites in general and have stayed at these hotels many times. The hotels are clean, the rooms are very nice, the breakfast buffet and the evening "snacks"  are good and convenient when on a trip. 
+After staying at numerous Staybridge Suites, including the older one in Anaheim, we decided to try this one since it is within "walking distance" of Disneyland. If you consider a 40 minute walk within walking distance, then it absolutely is within walking distance. In reality, after walking all over the parks and Downtown Disney, walking back to the hotel was brutal. The option to go back and rest in the afternoon before going back to the park in the evening was out the door with this hotel.
+To make matters worse, we booked 5 months in advance. We booked a 2-bedroom suite (which is what we always book with these hotels, they are amazing and well worth the cost). What we do is have the kids in one room and my husband and I stay in the other room. It's nice because there is a little living-room and kitchen that we can congregate in when someone is napping or getting ready. 
+We get to the hotel, after a 6.5 hour drive, to hear they "over booked" and we were put in 2 rooms. Obviously that doesn't work, we aren't going to put our under 5 year...I will start with the positives. I love Staybridge Suites in general and have stayed at these hotels many times. The hotels are clean, the rooms are very nice, the breakfast buffet and the evening "snacks"  are good and convenient when on a trip. After staying at numerous Staybridge Suites, including the older one in Anaheim, we decided to try this one since it is within "walking distance" of Disneyland. If you consider a 40 minute walk within walking distance, then it absolutely is within walking distance. In reality, after walking all over the parks and Downtown Disney, walking back to the hotel was brutal. The option to go back and rest in the afternoon before going back to the park in the evening was out the door with this hotel.To make matters worse, we booked 5 months in advance. We booked a 2-bedroom suite (which is what we always book with these hotels, they are amazing and well worth the cost). What we do is have the kids in one room and my husband and I stay in the other room. It's nice because there is a little living-room and kitchen that we can congregate in when someone is napping or getting ready. We get to the hotel, after a 6.5 hour drive, to hear they "over booked" and we were put in 2 rooms. Obviously that doesn't work, we aren't going to put our under 5 year old kids in a room across the hall. So my husband and I had to stay in 2 separate rooms, each of us with a kid, and walk between rooms to share the toiletries we packed together. I explained to the staff and was told there was nothing they could do for us. I decided to look for another hotel and came across the Staybridge in the search engine. I looked for the 2-bedroom suite to see if it would pop up, and it didn't. I looked for it all the way to October and somehow it isn't offered at all! Pretty sure we were lied to about this room's existence. I asked to talk to the manager when we were told about rooms on the 1st day, and was told he would call us in the morning. He never did. He never tried to contact us about the matter, bad customer service on his part. So on our last day, literally on our way out of the hotel, I asked to talk to the manager about the matter. One would think the manager would instantly walk out to talk to us and apologize while explaining the situation. Not this manager, he made us wait for him for 10 minutes. When he walked in through the door from outside, I thought he was another employee as he walked up and acted like I was in his way. So I moved out of the way saying "hello" at the same time. He said "can I help you?" I said, "we are waiting to speak with the manager." He said "that's me." Call me old fashioned (I am 31 years old) but I would think the manager would walk up with a smile, put his hand out, and greet his customers while telling us his name. I have no idea what his name even is to this day! He was rude, he acted like we had no reason to be upset, he didn't smile, he acted like we were a bother to him. I wasn't rude t him by the way, I just wanted to talk to him about the matter. To top it off, we recommended this hotel to a friend who also booked the 2-bedroom suite for the same week we were there, and her room was also "over booked' AND she was double charged!To sum it up, Staybridge Suites is a great hotel. We will stay with this hotel chain again. If in the Disneyland area, it will be the other Staybridge Suites hotel, the one on Manchester Ave, the manager there is so friendly and very welcoming! The Staybridge Suites Anaheim at the Park has terrible customer service; I wouldn't risk booking with this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r559686051-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>559686051</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Away </t>
+  </si>
+  <si>
+    <t>Last weekend we took a 3 days get away to the Happiest Place on Earth, and every time we visit Disneyland we'll always stay at the one of the Disneyland hotels.But this time we didn't really plan this trip so the dates of our trip all the Disney hotels were fully booked. So we have to start looking for another hotel, we saw the Staybridge and it said it's a new hotel just opened in 2016, we decided to give it a try , sure glad we did. Staybridge is in a great location just few minutes from the park getting uber was very easy. The hotel staff are very friendly and helpful. Great room, very comfortable bed and the kitchen are was very nice. They have good breakfast at the lobby in the morning and food for dinner at night. I was very impress with this hotel. If you are looking for a place to stay while visiting Disneyland with the family, pick Staybridge you won't be sorry. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Last weekend we took a 3 days get away to the Happiest Place on Earth, and every time we visit Disneyland we'll always stay at the one of the Disneyland hotels.But this time we didn't really plan this trip so the dates of our trip all the Disney hotels were fully booked. So we have to start looking for another hotel, we saw the Staybridge and it said it's a new hotel just opened in 2016, we decided to give it a try , sure glad we did. Staybridge is in a great location just few minutes from the park getting uber was very easy. The hotel staff are very friendly and helpful. Great room, very comfortable bed and the kitchen are was very nice. They have good breakfast at the lobby in the morning and food for dinner at night. I was very impress with this hotel. If you are looking for a place to stay while visiting Disneyland with the family, pick Staybridge you won't be sorry. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r559668488-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>559668488</t>
+  </si>
+  <si>
+    <t>New hotel close to Disneyland and ART bus stop</t>
+  </si>
+  <si>
+    <t>We stayed three nights last week and were quite pleased with this new property. the desk staff and breakfast staff were pleasant and kept the food stocked. The dining tables are sufficient to handle the crowds, especially if you go early. There is just one elevator so it can take a few minutes to go up or down, but not bad. The King Suite is spacious and equipped for cooking. The walk-in shower has a great shower head. Lyft came on 4 minutes notice, up from the Disney area, and was only $20 to John Wayne Airport in Santa Ana (KSNA). Riding the ART bus to the park was great, only $5 for a 3 day senior pass. Get passes in lobby or use Token Transit app. Be careful of the hotel internet for sensitive data; my credit card was hacked and used at "Boost Mobile" first day after using Token Transit on cell phone via hotel internet! Not sure which was at fault, but Chase VISA declined the fraudulent charge and cancelled card immediately with no charge. Have another card to use.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed three nights last week and were quite pleased with this new property. the desk staff and breakfast staff were pleasant and kept the food stocked. The dining tables are sufficient to handle the crowds, especially if you go early. There is just one elevator so it can take a few minutes to go up or down, but not bad. The King Suite is spacious and equipped for cooking. The walk-in shower has a great shower head. Lyft came on 4 minutes notice, up from the Disney area, and was only $20 to John Wayne Airport in Santa Ana (KSNA). Riding the ART bus to the park was great, only $5 for a 3 day senior pass. Get passes in lobby or use Token Transit app. Be careful of the hotel internet for sensitive data; my credit card was hacked and used at "Boost Mobile" first day after using Token Transit on cell phone via hotel internet! Not sure which was at fault, but Chase VISA declined the fraudulent charge and cancelled card immediately with no charge. Have another card to use.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r556972528-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>556972528</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>Got to Disneyland a day early so we just spent the night there before going to our other hotel. The only advantage the other hotel had over the Staybridge is that it offered early entry into the Disney parks. This hotel had a good location for Disneyland, but didn't offer a shuttle. There is bus transportation near the hotel. The hotel is new,clean and the people were friendly and helpful. They have visible security personnel roaming the area, which I liked. They have a parking structure that is a little tight on the parking spots and you have to pay a parking fee. I asked if I could leave the car there after I checked out and went to Disneyland. They said I could leave it at least until 3:00 PM, as long as they had room for incoming guests. I wished I had stayed there instead of Paradise Pier.MoreShow less</t>
+  </si>
+  <si>
+    <t>Got to Disneyland a day early so we just spent the night there before going to our other hotel. The only advantage the other hotel had over the Staybridge is that it offered early entry into the Disney parks. This hotel had a good location for Disneyland, but didn't offer a shuttle. There is bus transportation near the hotel. The hotel is new,clean and the people were friendly and helpful. They have visible security personnel roaming the area, which I liked. They have a parking structure that is a little tight on the parking spots and you have to pay a parking fee. I asked if I could leave the car there after I checked out and went to Disneyland. They said I could leave it at least until 3:00 PM, as long as they had room for incoming guests. I wished I had stayed there instead of Paradise Pier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r545072540-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>545072540</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free hot breakfast! Full size fridge </t>
+  </si>
+  <si>
+    <t>Did I mention free hot breakfast? Eggs (and they’re good!) bacon or sausage depending on the day. Plus oatmeal, cereals, breads and muffins, reasonably good coffee and more. I love it so much I’m writing this while I’m still eating.Another great feature is “The Pantry,” a little nook with snacks, cold drinks, ibuprofen, even frozen dinners you can heat in your microwave if you arrived late and hungry or get a midnight craving.The room is great, spacious, full kitchen including microwave and full size fridge. The staff is friendly and helpful. We are wowed!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Daniel K, General Manager at Staybridge Suites Anaheim At The Park, responded to this reviewResponded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Did I mention free hot breakfast? Eggs (and they’re good!) bacon or sausage depending on the day. Plus oatmeal, cereals, breads and muffins, reasonably good coffee and more. I love it so much I’m writing this while I’m still eating.Another great feature is “The Pantry,” a little nook with snacks, cold drinks, ibuprofen, even frozen dinners you can heat in your microwave if you arrived late and hungry or get a midnight craving.The room is great, spacious, full kitchen including microwave and full size fridge. The staff is friendly and helpful. We are wowed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r544489993-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>544489993</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>Wow...Wow...Wow! Cant say enough about this hotel!</t>
+  </si>
+  <si>
+    <t>We had booked at another hotel and changed to Staybridge @The park at the last minute.
+We touched base with Kevan White | Asst. General Manager and he assured us he could meet our needs and understood what we needed for this special anniversary stay.
+We arrived mid day and greeted by many smiling staff but especially nice was Ray at the front desk! 
+We got checked in and with minutes we had our key and off to check out our room.
+The hotel is new so everything is fresh and clean. Many of the hotels in Disney area are old and worn. The hotel has a calm color scheme vs everything being Disney! We got to our room and it was nice and big two queen beds, corner room with a view of Ball rd. Full kitchen and big bathroom.
+Other perks include a small play pool great for kids,a nice fire pit on cold anahim nights.
+But the best thing was there social hour at night. It was free and the food was good.
+1st night was quesadillas, with a toppings bar and free softdrinks and beers!
+2nd night was fresh grilled hamburgers! Combine this with the free breakfast and you have two of the three meals for your day!
+They have several big screen TVS which was nice as the world series was playing during our stay. They have one room that looks like a home den...We had booked at another hotel and changed to Staybridge @The park at the last minute.We touched base with Kevan White | Asst. General Manager and he assured us he could meet our needs and understood what we needed for this special anniversary stay.We arrived mid day and greeted by many smiling staff but especially nice was Ray at the front desk! We got checked in and with minutes we had our key and off to check out our room.The hotel is new so everything is fresh and clean. Many of the hotels in Disney area are old and worn. The hotel has a calm color scheme vs everything being Disney! We got to our room and it was nice and big two queen beds, corner room with a view of Ball rd. Full kitchen and big bathroom.Other perks include a small play pool great for kids,a nice fire pit on cold anahim nights.But the best thing was there social hour at night. It was free and the food was good.1st night was quesadillas, with a toppings bar and free softdrinks and beers!2nd night was fresh grilled hamburgers! Combine this with the free breakfast and you have two of the three meals for your day!They have several big screen TVS which was nice as the world series was playing during our stay. They have one room that looks like a home den with big soft couches for watching TV.The walk to Disney was a bit far and we had seen reviews is noted as a short walk but on our day it was 105 in Oct and it was crazy hot. We would recommend the Shuttle picks up in the parking lot or the city bus #83 picks up 1/2 block to the west and its only $2.00 drops you off at the Disneyland entrance.Staybridge offers free washer and dryers downstairs you only pay for laundry soap.Disneyland started not doing fireworks during the week and only weekends but I am sure they can be seen in front of the hotel.The room was very comfortable and beds are new and comfortable also.We will definitely stay here again on our next trip!Great Job Kevan and Ray and the whole staff @StaybridgeMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Daniel K, General Manager at Staybridge Suites Anaheim At The Park, responded to this reviewResponded December 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2017</t>
+  </si>
+  <si>
+    <t>We had booked at another hotel and changed to Staybridge @The park at the last minute.
+We touched base with Kevan White | Asst. General Manager and he assured us he could meet our needs and understood what we needed for this special anniversary stay.
+We arrived mid day and greeted by many smiling staff but especially nice was Ray at the front desk! 
+We got checked in and with minutes we had our key and off to check out our room.
+The hotel is new so everything is fresh and clean. Many of the hotels in Disney area are old and worn. The hotel has a calm color scheme vs everything being Disney! We got to our room and it was nice and big two queen beds, corner room with a view of Ball rd. Full kitchen and big bathroom.
+Other perks include a small play pool great for kids,a nice fire pit on cold anahim nights.
+But the best thing was there social hour at night. It was free and the food was good.
+1st night was quesadillas, with a toppings bar and free softdrinks and beers!
+2nd night was fresh grilled hamburgers! Combine this with the free breakfast and you have two of the three meals for your day!
+They have several big screen TVS which was nice as the world series was playing during our stay. They have one room that looks like a home den...We had booked at another hotel and changed to Staybridge @The park at the last minute.We touched base with Kevan White | Asst. General Manager and he assured us he could meet our needs and understood what we needed for this special anniversary stay.We arrived mid day and greeted by many smiling staff but especially nice was Ray at the front desk! We got checked in and with minutes we had our key and off to check out our room.The hotel is new so everything is fresh and clean. Many of the hotels in Disney area are old and worn. The hotel has a calm color scheme vs everything being Disney! We got to our room and it was nice and big two queen beds, corner room with a view of Ball rd. Full kitchen and big bathroom.Other perks include a small play pool great for kids,a nice fire pit on cold anahim nights.But the best thing was there social hour at night. It was free and the food was good.1st night was quesadillas, with a toppings bar and free softdrinks and beers!2nd night was fresh grilled hamburgers! Combine this with the free breakfast and you have two of the three meals for your day!They have several big screen TVS which was nice as the world series was playing during our stay. They have one room that looks like a home den with big soft couches for watching TV.The walk to Disney was a bit far and we had seen reviews is noted as a short walk but on our day it was 105 in Oct and it was crazy hot. We would recommend the Shuttle picks up in the parking lot or the city bus #83 picks up 1/2 block to the west and its only $2.00 drops you off at the Disneyland entrance.Staybridge offers free washer and dryers downstairs you only pay for laundry soap.Disneyland started not doing fireworks during the week and only weekends but I am sure they can be seen in front of the hotel.The room was very comfortable and beds are new and comfortable also.We will definitely stay here again on our next trip!Great Job Kevan and Ray and the whole staff @StaybridgeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r542893983-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>542893983</t>
+  </si>
+  <si>
+    <t>11/23/2017</t>
+  </si>
+  <si>
+    <t>Fun</t>
+  </si>
+  <si>
+    <t>I really love this hotel. It’s a suite and very big. It was my first time in Anaheim. It’s right around the corner from Disneyland. No reason to stay at the expensive hotels on Disney property. We stayed two days and had a great view of the fireworks at night. The hotel has a full kitchen and stove included. They serve breakfast in the morning and dinner at night. We used a Uber for the first time it’s great. I will use it again. I will stay here again it’s nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel K, General Manager at Staybridge Suites Anaheim At The Park, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>I really love this hotel. It’s a suite and very big. It was my first time in Anaheim. It’s right around the corner from Disneyland. No reason to stay at the expensive hotels on Disney property. We stayed two days and had a great view of the fireworks at night. The hotel has a full kitchen and stove included. They serve breakfast in the morning and dinner at night. We used a Uber for the first time it’s great. I will use it again. I will stay here again it’s nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r536767565-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>536767565</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Great front desk help</t>
+  </si>
+  <si>
+    <t>very good front desk service by Pam.  She is very helpful in getting whatever my out of town family visitors needed.Always busy hotel property.  Family visits four times a year , the suites are nice and gives a family a chance to stop at the store to have some snacks, beverages, and water on hand.  The breakfast is very good for a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel K, General Manager at Staybridge Suites Anaheim At The Park, responded to this reviewResponded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2017</t>
+  </si>
+  <si>
+    <t>very good front desk service by Pam.  She is very helpful in getting whatever my out of town family visitors needed.Always busy hotel property.  Family visits four times a year , the suites are nice and gives a family a chance to stop at the store to have some snacks, beverages, and water on hand.  The breakfast is very good for a hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r535255477-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>535255477</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>Super clean rooms</t>
+  </si>
+  <si>
+    <t>We visit Disneyland atleast once a year, this is our first stay at staybridge suites at the park... We had the 1 bedroom suite with a living room and kitchen. Perfect for 5 of us. We stayed 3 nights... the most that impressed me the most is the cleanliness of the room, and the breakfast! They have many selections like toast, bagel, muffins, fruits, bacon, eggs, cereal and waffle maker. Everything was awesome! They had a laundry area in the basement, for free! Just make sure to bring laundry detergent.The check in was quick, self parking and close to Disneyland. We walked to downtown Disney and it took about 15 min. We used uber coming home and going to Disneyland again the next day, and for only $5. Overall the stay was great. Everyone from front desk, housekeeping and breakfast crew was super nice. I would definitely stay here again.. MoreShow less</t>
+  </si>
+  <si>
+    <t>We visit Disneyland atleast once a year, this is our first stay at staybridge suites at the park... We had the 1 bedroom suite with a living room and kitchen. Perfect for 5 of us. We stayed 3 nights... the most that impressed me the most is the cleanliness of the room, and the breakfast! They have many selections like toast, bagel, muffins, fruits, bacon, eggs, cereal and waffle maker. Everything was awesome! They had a laundry area in the basement, for free! Just make sure to bring laundry detergent.The check in was quick, self parking and close to Disneyland. We walked to downtown Disney and it took about 15 min. We used uber coming home and going to Disneyland again the next day, and for only $5. Overall the stay was great. Everyone from front desk, housekeeping and breakfast crew was super nice. I would definitely stay here again.. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r534456115-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>534456115</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>Great for families</t>
+  </si>
+  <si>
+    <t>Our family of 11 recently stayed at Staybridge Suites Anaheim At The Park. we were  in town for a wedding and a day at Disneyland. We reserved two 2 bedroom suites and one studio suite for my husband and I. The 2 bedroom suites worked perfectly for our two children and their young families. Our studio suite was very spacious and suited our needs just fine. The hotel opened in April of this year so it's in great condition. The sofas weren't the most comfortable. Maybe they need breaking in! 
+Breakfast was good. There is fruit, muffins and bagels, oatmeal, cereal, sliced cheese, scrambled eggs and a meat side. You can also make your own waffles, As you can tell, plenty of food and the staff couldn't have been nicer! They kept everything filled and the tables cleaned off. I felt so guilty because we had a couple of toddlers that made the table and floor area look like a bomb had gone off. I offered to sweep the floor, but the staff laughed and said they were happy to take care of the mess. 
+The front desk staff were so nice. Kevan and Liliana were a delight to deal with. Very pleasant and did whatever they could with a smile on their face. We checked in early and although our rooms weren't ready, they were very polite and tried to speed things up. If you stay on a weekend...Our family of 11 recently stayed at Staybridge Suites Anaheim At The Park. we were  in town for a wedding and a day at Disneyland. We reserved two 2 bedroom suites and one studio suite for my husband and I. The 2 bedroom suites worked perfectly for our two children and their young families. Our studio suite was very spacious and suited our needs just fine. The hotel opened in April of this year so it's in great condition. The sofas weren't the most comfortable. Maybe they need breaking in! Breakfast was good. There is fruit, muffins and bagels, oatmeal, cereal, sliced cheese, scrambled eggs and a meat side. You can also make your own waffles, As you can tell, plenty of food and the staff couldn't have been nicer! They kept everything filled and the tables cleaned off. I felt so guilty because we had a couple of toddlers that made the table and floor area look like a bomb had gone off. I offered to sweep the floor, but the staff laughed and said they were happy to take care of the mess. The front desk staff were so nice. Kevan and Liliana were a delight to deal with. Very pleasant and did whatever they could with a smile on their face. We checked in early and although our rooms weren't ready, they were very polite and tried to speed things up. If you stay on a weekend like we did, make sure you let the front desk know if you want maid service. Otherwise, there is no service on the weekends. Downtown Disney was about a 15 minute walk and another 15 minutes from there to Disneyland. Our security check was minimal considering we went to Disneyland on a Saturday. My only complaint has nothing to do with staff or the rooms. The elevator is awful when everyone is trying to leave for Disneyland. It was a ride in itself to make it from the 3rd floor to the lobby. From 3rd we went to 4th, down to the parking level, up to the 3rd floor, down to the 2nd floor, up to the 4th floor, down to the basement before going up to the lobby. It took us 10 minutes to make it to the lobby. Just use the stairs, right? No stairs by the elevator for going up and down the floors. There are two different areas where fire escape stairwells are located at the end of certain halls. It's ok if you want to go down to another floor, you just can't get to the lobby that way and the doors lock behind you. No key access. One stairwell ends at the parking area the other one takes you outside by the driveway entrance. I've never seen anything like this. I've never been in a hotel that does have stair access by the elevator. I don't know how the architect didn't think this one through and provide stair access. I do hope they regulate the elevator. Bottom line: we would more than likely return, we just don't look forward to dealing with the elevator.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel K, General Manager at Staybridge Suites Anaheim At The Park, responded to this reviewResponded October 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2017</t>
+  </si>
+  <si>
+    <t>Our family of 11 recently stayed at Staybridge Suites Anaheim At The Park. we were  in town for a wedding and a day at Disneyland. We reserved two 2 bedroom suites and one studio suite for my husband and I. The 2 bedroom suites worked perfectly for our two children and their young families. Our studio suite was very spacious and suited our needs just fine. The hotel opened in April of this year so it's in great condition. The sofas weren't the most comfortable. Maybe they need breaking in! 
+Breakfast was good. There is fruit, muffins and bagels, oatmeal, cereal, sliced cheese, scrambled eggs and a meat side. You can also make your own waffles, As you can tell, plenty of food and the staff couldn't have been nicer! They kept everything filled and the tables cleaned off. I felt so guilty because we had a couple of toddlers that made the table and floor area look like a bomb had gone off. I offered to sweep the floor, but the staff laughed and said they were happy to take care of the mess. 
+The front desk staff were so nice. Kevan and Liliana were a delight to deal with. Very pleasant and did whatever they could with a smile on their face. We checked in early and although our rooms weren't ready, they were very polite and tried to speed things up. If you stay on a weekend...Our family of 11 recently stayed at Staybridge Suites Anaheim At The Park. we were  in town for a wedding and a day at Disneyland. We reserved two 2 bedroom suites and one studio suite for my husband and I. The 2 bedroom suites worked perfectly for our two children and their young families. Our studio suite was very spacious and suited our needs just fine. The hotel opened in April of this year so it's in great condition. The sofas weren't the most comfortable. Maybe they need breaking in! Breakfast was good. There is fruit, muffins and bagels, oatmeal, cereal, sliced cheese, scrambled eggs and a meat side. You can also make your own waffles, As you can tell, plenty of food and the staff couldn't have been nicer! They kept everything filled and the tables cleaned off. I felt so guilty because we had a couple of toddlers that made the table and floor area look like a bomb had gone off. I offered to sweep the floor, but the staff laughed and said they were happy to take care of the mess. The front desk staff were so nice. Kevan and Liliana were a delight to deal with. Very pleasant and did whatever they could with a smile on their face. We checked in early and although our rooms weren't ready, they were very polite and tried to speed things up. If you stay on a weekend like we did, make sure you let the front desk know if you want maid service. Otherwise, there is no service on the weekends. Downtown Disney was about a 15 minute walk and another 15 minutes from there to Disneyland. Our security check was minimal considering we went to Disneyland on a Saturday. My only complaint has nothing to do with staff or the rooms. The elevator is awful when everyone is trying to leave for Disneyland. It was a ride in itself to make it from the 3rd floor to the lobby. From 3rd we went to 4th, down to the parking level, up to the 3rd floor, down to the 2nd floor, up to the 4th floor, down to the basement before going up to the lobby. It took us 10 minutes to make it to the lobby. Just use the stairs, right? No stairs by the elevator for going up and down the floors. There are two different areas where fire escape stairwells are located at the end of certain halls. It's ok if you want to go down to another floor, you just can't get to the lobby that way and the doors lock behind you. No key access. One stairwell ends at the parking area the other one takes you outside by the driveway entrance. I've never seen anything like this. I've never been in a hotel that does have stair access by the elevator. I don't know how the architect didn't think this one through and provide stair access. I do hope they regulate the elevator. Bottom line: we would more than likely return, we just don't look forward to dealing with the elevator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r523616585-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>523616585</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Doesn't meet corporate standard of Staybridge</t>
+  </si>
+  <si>
+    <t>Several things I need improvement in comparison to other properties that are under the Staybridge name. This particular property is difficult to locate unless you know exactly where it is since there is no signage near the street it is easy to drive pass.  Once we located the property, they would not allow us to check in at 1 PM and told us that we had to wait that check in was it 3 PM. We waited until  it was time to check in only to find out the rooms did not have keys that worked so we had to have maintenance allow us into our rooms until they can figure out the problems.   If we left her rooms, we had to bother them to allow us back in our rooms each time. They did offer compensation after we asked which was waving the $18 per day parking fee since they charge for parking on their own property. They have a business center near their lobby but it is completely worthless since the printer doesn't have paper  nor does it have any toner. We Asked the front desk if they could replace the toner since we were trying to print our boarding passes prior to going to the airport and with their confused look on their faces, they concluded they simply didn't know if they had toner but they didn't bother to check either.   This is a typical over priced...Several things I need improvement in comparison to other properties that are under the Staybridge name. This particular property is difficult to locate unless you know exactly where it is since there is no signage near the street it is easy to drive pass.  Once we located the property, they would not allow us to check in at 1 PM and told us that we had to wait that check in was it 3 PM. We waited until  it was time to check in only to find out the rooms did not have keys that worked so we had to have maintenance allow us into our rooms until they can figure out the problems.   If we left her rooms, we had to bother them to allow us back in our rooms each time. They did offer compensation after we asked which was waving the $18 per day parking fee since they charge for parking on their own property. They have a business center near their lobby but it is completely worthless since the printer doesn't have paper  nor does it have any toner. We Asked the front desk if they could replace the toner since we were trying to print our boarding passes prior to going to the airport and with their confused look on their faces, they concluded they simply didn't know if they had toner but they didn't bother to check either.   This is a typical over priced low value property because of the fact it is near the Disneyland entrance since we have had better luck at other Staybridge suites.  The result of hiring inexperienced young employees absolutely shows at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2017</t>
+  </si>
+  <si>
+    <t>Several things I need improvement in comparison to other properties that are under the Staybridge name. This particular property is difficult to locate unless you know exactly where it is since there is no signage near the street it is easy to drive pass.  Once we located the property, they would not allow us to check in at 1 PM and told us that we had to wait that check in was it 3 PM. We waited until  it was time to check in only to find out the rooms did not have keys that worked so we had to have maintenance allow us into our rooms until they can figure out the problems.   If we left her rooms, we had to bother them to allow us back in our rooms each time. They did offer compensation after we asked which was waving the $18 per day parking fee since they charge for parking on their own property. They have a business center near their lobby but it is completely worthless since the printer doesn't have paper  nor does it have any toner. We Asked the front desk if they could replace the toner since we were trying to print our boarding passes prior to going to the airport and with their confused look on their faces, they concluded they simply didn't know if they had toner but they didn't bother to check either.   This is a typical over priced...Several things I need improvement in comparison to other properties that are under the Staybridge name. This particular property is difficult to locate unless you know exactly where it is since there is no signage near the street it is easy to drive pass.  Once we located the property, they would not allow us to check in at 1 PM and told us that we had to wait that check in was it 3 PM. We waited until  it was time to check in only to find out the rooms did not have keys that worked so we had to have maintenance allow us into our rooms until they can figure out the problems.   If we left her rooms, we had to bother them to allow us back in our rooms each time. They did offer compensation after we asked which was waving the $18 per day parking fee since they charge for parking on their own property. They have a business center near their lobby but it is completely worthless since the printer doesn't have paper  nor does it have any toner. We Asked the front desk if they could replace the toner since we were trying to print our boarding passes prior to going to the airport and with their confused look on their faces, they concluded they simply didn't know if they had toner but they didn't bother to check either.   This is a typical over priced low value property because of the fact it is near the Disneyland entrance since we have had better luck at other Staybridge suites.  The result of hiring inexperienced young employees absolutely shows at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r522675527-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>522675527</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Stayed twice at this hotel this summer. Both times were a great stay. We walked to Disneyland several times. 2000 steps to the back side of Downtown Disney and another 1000 to the gate. We faced the fireworks show and had a great view every night. Breakfast was good staff was super friendly. We'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Stayed twice at this hotel this summer. Both times were a great stay. We walked to Disneyland several times. 2000 steps to the back side of Downtown Disney and another 1000 to the gate. We faced the fireworks show and had a great view every night. Breakfast was good staff was super friendly. We'll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r519122596-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>519122596</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Almost Amazing</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay very much... for the first several days. The staff was so friendly, breakfast was hot and constantly being replenished. Everything was clean and the pool, though small, was great. But on the last two days of our stay, housekeeping never showed up. The first time we thought it was because they were running late and we were in our room in the late afternoon, taking a break from the parks. We called the front desk when we got back, told them we were missed, and exchanged our used towels. The next day, housekeeping was literally cleaning the room next door as we left. Came back after a late park night - no housekeeping again! While it's not the end of the world, it was frustrating to have to deal with these errands after a long day, late night and having to leave for a long drive home early in the morning. Other than that inconvenience, they really did a great job!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2017</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay very much... for the first several days. The staff was so friendly, breakfast was hot and constantly being replenished. Everything was clean and the pool, though small, was great. But on the last two days of our stay, housekeeping never showed up. The first time we thought it was because they were running late and we were in our room in the late afternoon, taking a break from the parks. We called the front desk when we got back, told them we were missed, and exchanged our used towels. The next day, housekeeping was literally cleaning the room next door as we left. Came back after a late park night - no housekeeping again! While it's not the end of the world, it was frustrating to have to deal with these errands after a long day, late night and having to leave for a long drive home early in the morning. Other than that inconvenience, they really did a great job!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r512786546-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>512786546</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>We just returned from a family Disney vacation. Since I am an IHG Spire member I booked reward nights and could not have been more satisfied. Quick caveat, the elevator can be slow.. Ok that it is out there, when I arrived I was greeted by Kevan and he could not have been more helpful. We got in a bit early and he gave us a great recommendation where we could hang out for a bit and we had fun. Our room was comfortable and had everything we needed. The breakfast was great, and there was new choices every morning. It can be a bit chaotic before the guests going to the park are there but they have lots of staff taking care of the area. Parking was easy. I would stay there again, and recommend it for people that want to be near the park or I 5!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2017</t>
+  </si>
+  <si>
+    <t>We just returned from a family Disney vacation. Since I am an IHG Spire member I booked reward nights and could not have been more satisfied. Quick caveat, the elevator can be slow.. Ok that it is out there, when I arrived I was greeted by Kevan and he could not have been more helpful. We got in a bit early and he gave us a great recommendation where we could hang out for a bit and we had fun. Our room was comfortable and had everything we needed. The breakfast was great, and there was new choices every morning. It can be a bit chaotic before the guests going to the park are there but they have lots of staff taking care of the area. Parking was easy. I would stay there again, and recommend it for people that want to be near the park or I 5!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r511981120-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>511981120</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Perfect for family</t>
+  </si>
+  <si>
+    <t>Great hotel for family of 5 or less. Very good location to Disney Land and other areas.  Very nice hotel and people works there are very friendly. We enjoyed our stay there for 4 nights. The room is very clean. The pool is also clean. It's nice that they have  social time in the evening for gathering.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Great hotel for family of 5 or less. Very good location to Disney Land and other areas.  Very nice hotel and people works there are very friendly. We enjoyed our stay there for 4 nights. The room is very clean. The pool is also clean. It's nice that they have  social time in the evening for gathering.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r503345108-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>503345108</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Good place to stay!</t>
+  </si>
+  <si>
+    <t>We went to this hotel due to problems we had at the one we were staying at. Well we really enjoyed it. The studio has a good setup, its fresh, spacious. Breakfast is ok. Pretty much the same food everyday but ok. Evening snacks are good. My kids enjoyed the pool. Quiet hotel. Nice and friendly staff. Housekeeping didn't go to our room everyday but as soon as we would call they would send someone. Overall we enjoyed our 5 night stay. Also, we weren't there to go to Disneyland. I did see people walking but I personally think it's far to walk there and that's because I have stayed at a hotel that took no longer than 5 minutes to get there.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>We went to this hotel due to problems we had at the one we were staying at. Well we really enjoyed it. The studio has a good setup, its fresh, spacious. Breakfast is ok. Pretty much the same food everyday but ok. Evening snacks are good. My kids enjoyed the pool. Quiet hotel. Nice and friendly staff. Housekeeping didn't go to our room everyday but as soon as we would call they would send someone. Overall we enjoyed our 5 night stay. Also, we weren't there to go to Disneyland. I did see people walking but I personally think it's far to walk there and that's because I have stayed at a hotel that took no longer than 5 minutes to get there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r496392921-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>496392921</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Large rooms!</t>
+  </si>
+  <si>
+    <t>This newer hotel is nice for a large family. I stayed in a 2 queen room with sofa pull out and it was spacious for 2 adults and 3 children. They had a good, free breakfast in the morning. There is a small pool with a firepit and overall a clean hotel. The few main negatives are they don't have a hotel shuttle, it is not a convenient to walk to the parks and the elevator takes awhile as there is only 1 for the whole building. There is a city bus near the hotel, but we ordered an Uber for $10 one way for 5 people. It was cheaper than the city bus and it dropped us right off. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>This newer hotel is nice for a large family. I stayed in a 2 queen room with sofa pull out and it was spacious for 2 adults and 3 children. They had a good, free breakfast in the morning. There is a small pool with a firepit and overall a clean hotel. The few main negatives are they don't have a hotel shuttle, it is not a convenient to walk to the parks and the elevator takes awhile as there is only 1 for the whole building. There is a city bus near the hotel, but we ordered an Uber for $10 one way for 5 people. It was cheaper than the city bus and it dropped us right off. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r496022440-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>496022440</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>I won't stay here again!</t>
+  </si>
+  <si>
+    <t>This hotel is just ok I read reviews before booking and felt comfortable in my choice. I will not stay here again or recommend it. I will not go into to many details but just beware it is not as good as I thought. Second night we could not get fresh towels very angry about thisMoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is just ok I read reviews before booking and felt comfortable in my choice. I will not stay here again or recommend it. I will not go into to many details but just beware it is not as good as I thought. Second night we could not get fresh towels very angry about thisMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r495919899-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>495919899</t>
+  </si>
+  <si>
+    <t>A great place for a weekend stay at Disneyland</t>
+  </si>
+  <si>
+    <t>We booked this hotel as a Priceline Express Deal and we were very pleased. Overall the hotel is great. It is new so all of the space is very clean. When we arrived we were greeted by two very nice desk clerks who checked us in and proceeded to let us know that the fireworks would be going off out front in 2 minutes if we would like to see them. We walked outside to the front parking lot and the fireworks started. It was perfect! 
+We then checked into our room which was a very spacious 2 queen with a full size sofa bed. The room was beautiful and faced the pool area so it was quiet outside. The rooms are designed for long term guests so they are equipped with a full sized refrigerator, stove top, dishwasher, etc. There is also a full sized coffee maker for those who like a lot of coffee- I was fine with one cup. 
+The beds were very comfortable and came with enough pillows and bedding to satisfy both my daughter and I who like to sleep with several pillows. 
+We didn't use the pool, but they have an outside pool area that has cushioned seats and a small lounge area with a firepit.
+The lobby area is very spacious and has a very nice breakfast area where they serve a good morning hot breakfast. We ate there both days and it...We booked this hotel as a Priceline Express Deal and we were very pleased. Overall the hotel is great. It is new so all of the space is very clean. When we arrived we were greeted by two very nice desk clerks who checked us in and proceeded to let us know that the fireworks would be going off out front in 2 minutes if we would like to see them. We walked outside to the front parking lot and the fireworks started. It was perfect! We then checked into our room which was a very spacious 2 queen with a full size sofa bed. The room was beautiful and faced the pool area so it was quiet outside. The rooms are designed for long term guests so they are equipped with a full sized refrigerator, stove top, dishwasher, etc. There is also a full sized coffee maker for those who like a lot of coffee- I was fine with one cup. The beds were very comfortable and came with enough pillows and bedding to satisfy both my daughter and I who like to sleep with several pillows. We didn't use the pool, but they have an outside pool area that has cushioned seats and a small lounge area with a firepit.The lobby area is very spacious and has a very nice breakfast area where they serve a good morning hot breakfast. We ate there both days and it was fine.The gym is small but has at least one of everything you need. We did not use it but people were in there when we got back from Disneyland at 11pm.There is also a small enclosed sitting area near the breakfast area/lobby which looked like a nice place to relax.Overall I would absolutely recommend this hotel. It is less than 1 mile to Downtown Disney, or less than a $10 Lyft ride-- which is what we did as we took the train to Anaheim. Some of the small cons- which didn't really bother us---Air conditioning is a little loud. It's not central so the box is a little noisy. I slept through it but it's good to bring ear plugs if you are a very light sleeper. That being said we could also hear the people above us stopping around in the morning. This isn't really anyone's fault but was a little disturbing in the morning.The other thing is the fact that they don't have normal housekeeping service during the weekend. They post this in the room so it is expected, but being used to daily housekeeping service it was odd to come back with the beds not made up.Other than those minor things everything was fantastic! Thank you to the hotel for great service and an enjoyable stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked this hotel as a Priceline Express Deal and we were very pleased. Overall the hotel is great. It is new so all of the space is very clean. When we arrived we were greeted by two very nice desk clerks who checked us in and proceeded to let us know that the fireworks would be going off out front in 2 minutes if we would like to see them. We walked outside to the front parking lot and the fireworks started. It was perfect! 
+We then checked into our room which was a very spacious 2 queen with a full size sofa bed. The room was beautiful and faced the pool area so it was quiet outside. The rooms are designed for long term guests so they are equipped with a full sized refrigerator, stove top, dishwasher, etc. There is also a full sized coffee maker for those who like a lot of coffee- I was fine with one cup. 
+The beds were very comfortable and came with enough pillows and bedding to satisfy both my daughter and I who like to sleep with several pillows. 
+We didn't use the pool, but they have an outside pool area that has cushioned seats and a small lounge area with a firepit.
+The lobby area is very spacious and has a very nice breakfast area where they serve a good morning hot breakfast. We ate there both days and it...We booked this hotel as a Priceline Express Deal and we were very pleased. Overall the hotel is great. It is new so all of the space is very clean. When we arrived we were greeted by two very nice desk clerks who checked us in and proceeded to let us know that the fireworks would be going off out front in 2 minutes if we would like to see them. We walked outside to the front parking lot and the fireworks started. It was perfect! We then checked into our room which was a very spacious 2 queen with a full size sofa bed. The room was beautiful and faced the pool area so it was quiet outside. The rooms are designed for long term guests so they are equipped with a full sized refrigerator, stove top, dishwasher, etc. There is also a full sized coffee maker for those who like a lot of coffee- I was fine with one cup. The beds were very comfortable and came with enough pillows and bedding to satisfy both my daughter and I who like to sleep with several pillows. We didn't use the pool, but they have an outside pool area that has cushioned seats and a small lounge area with a firepit.The lobby area is very spacious and has a very nice breakfast area where they serve a good morning hot breakfast. We ate there both days and it was fine.The gym is small but has at least one of everything you need. We did not use it but people were in there when we got back from Disneyland at 11pm.There is also a small enclosed sitting area near the breakfast area/lobby which looked like a nice place to relax.Overall I would absolutely recommend this hotel. It is less than 1 mile to Downtown Disney, or less than a $10 Lyft ride-- which is what we did as we took the train to Anaheim. Some of the small cons- which didn't really bother us---Air conditioning is a little loud. It's not central so the box is a little noisy. I slept through it but it's good to bring ear plugs if you are a very light sleeper. That being said we could also hear the people above us stopping around in the morning. This isn't really anyone's fault but was a little disturbing in the morning.The other thing is the fact that they don't have normal housekeeping service during the weekend. They post this in the room so it is expected, but being used to daily housekeeping service it was odd to come back with the beds not made up.Other than those minor things everything was fantastic! Thank you to the hotel for great service and an enjoyable stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r488010436-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>488010436</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Beautiful New Hotel Walking Distance to Park</t>
+  </si>
+  <si>
+    <t>New hotel right next to Disneyland Park. Beautiful rooms, friendly and knowledgeable staff, walking distance to tons of great restaurants and the park, great breakfast, gorgeous lobby, meeting rooms, and a gym. This hotel is ideal for a family trip. My wife and I highly recommend this property over others in the Anaheim area, and we have stayed in plenty of them! Be sure to ask for a "fireworks view" room and check out the fire pit lounge area by the pool. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>New hotel right next to Disneyland Park. Beautiful rooms, friendly and knowledgeable staff, walking distance to tons of great restaurants and the park, great breakfast, gorgeous lobby, meeting rooms, and a gym. This hotel is ideal for a family trip. My wife and I highly recommend this property over others in the Anaheim area, and we have stayed in plenty of them! Be sure to ask for a "fireworks view" room and check out the fire pit lounge area by the pool. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r486940261-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>486940261</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>A team hotel</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel Saturday night. What a terrible experience.
+It started by me calling Saturday around 12:30 to see if they could check and see if a room was available early. After about 20 rings Ray the front desk clerk picks up. I ask him as an IHG rewards platinum member can you check and see if a room is available early and he says nope, 3 pm. We have a big group. I am guessing from his voice and the number of rings that he is stressed with a big group. I tell my wife that we will check one more time before going to the theme park. 
+I pull up about an hour later and go into the hotel to find the lobby empty and no one around. After waiting 5 minutes the clerk Ray runs over. I ask again and he says nope, 3 pm or I can give you a call. He brought up the group again.
+I was upset that he did not even offer to call housekeeping and check. Check out was 11:00. He did not care about anything but that group. He could have called and just tried to make effort. He had a passive attitude. 
+The room had cleanliness and maintenance issues. The water in the shower would not stay warm as it kept falling to hot. This was not fun as I had to hold the faucet while my...I stayed at this hotel Saturday night. What a terrible experience.It started by me calling Saturday around 12:30 to see if they could check and see if a room was available early. After about 20 rings Ray the front desk clerk picks up. I ask him as an IHG rewards platinum member can you check and see if a room is available early and he says nope, 3 pm. We have a big group. I am guessing from his voice and the number of rings that he is stressed with a big group. I tell my wife that we will check one more time before going to the theme park. I pull up about an hour later and go into the hotel to find the lobby empty and no one around. After waiting 5 minutes the clerk Ray runs over. I ask again and he says nope, 3 pm or I can give you a call. He brought up the group again.I was upset that he did not even offer to call housekeeping and check. Check out was 11:00. He did not care about anything but that group. He could have called and just tried to make effort. He had a passive attitude. The room had cleanliness and maintenance issues. The water in the shower would not stay warm as it kept falling to hot. This was not fun as I had to hold the faucet while my 9 year old took a shower. I was worried that it would burn him. I used a washcloth to try and hold the faucet up as it kept falling to hot. The light above the sink stopped working in the morning.The room was not as clean as it should have been. See pictures of the stains throughout. I would have looked the other way but there were too many bigger issues.The Master power switch shuts off the alarm clock.The morning summarizes everything as the middle school group took over the elevator and breakfast. We skipped breakfast due to the crowd, let Ray know about the maintenance issues and walked up the ramp to the car. It was a bad experience all around.I lodged a complaint with the hotel and received an adequate response. It was explained to me that they have a strict policy of 3 pm with no flexibility. This is due previous guest issues because of the groups taking the rooms. As I stated this is a team hotel and not for regular travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel Saturday night. What a terrible experience.
+It started by me calling Saturday around 12:30 to see if they could check and see if a room was available early. After about 20 rings Ray the front desk clerk picks up. I ask him as an IHG rewards platinum member can you check and see if a room is available early and he says nope, 3 pm. We have a big group. I am guessing from his voice and the number of rings that he is stressed with a big group. I tell my wife that we will check one more time before going to the theme park. 
+I pull up about an hour later and go into the hotel to find the lobby empty and no one around. After waiting 5 minutes the clerk Ray runs over. I ask again and he says nope, 3 pm or I can give you a call. He brought up the group again.
+I was upset that he did not even offer to call housekeeping and check. Check out was 11:00. He did not care about anything but that group. He could have called and just tried to make effort. He had a passive attitude. 
+The room had cleanliness and maintenance issues. The water in the shower would not stay warm as it kept falling to hot. This was not fun as I had to hold the faucet while my...I stayed at this hotel Saturday night. What a terrible experience.It started by me calling Saturday around 12:30 to see if they could check and see if a room was available early. After about 20 rings Ray the front desk clerk picks up. I ask him as an IHG rewards platinum member can you check and see if a room is available early and he says nope, 3 pm. We have a big group. I am guessing from his voice and the number of rings that he is stressed with a big group. I tell my wife that we will check one more time before going to the theme park. I pull up about an hour later and go into the hotel to find the lobby empty and no one around. After waiting 5 minutes the clerk Ray runs over. I ask again and he says nope, 3 pm or I can give you a call. He brought up the group again.I was upset that he did not even offer to call housekeeping and check. Check out was 11:00. He did not care about anything but that group. He could have called and just tried to make effort. He had a passive attitude. The room had cleanliness and maintenance issues. The water in the shower would not stay warm as it kept falling to hot. This was not fun as I had to hold the faucet while my 9 year old took a shower. I was worried that it would burn him. I used a washcloth to try and hold the faucet up as it kept falling to hot. The light above the sink stopped working in the morning.The room was not as clean as it should have been. See pictures of the stains throughout. I would have looked the other way but there were too many bigger issues.The Master power switch shuts off the alarm clock.The morning summarizes everything as the middle school group took over the elevator and breakfast. We skipped breakfast due to the crowd, let Ray know about the maintenance issues and walked up the ramp to the car. It was a bad experience all around.I lodged a complaint with the hotel and received an adequate response. It was explained to me that they have a strict policy of 3 pm with no flexibility. This is due previous guest issues because of the groups taking the rooms. As I stated this is a team hotel and not for regular travelers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r485794449-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>485794449</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>This hotel was excellent. The service was top notch. The front desk was able to accommodate our early check in. They were courteous and attentive. The property was clean, modern, and everything was new. Our room was comfortable and spacious. Breakfast was great! The breakfast attendants were super attentive and were busy making sure there was always food and that the area was clean. Very convenient location to Disneyland and downtown Disney. I would highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was excellent. The service was top notch. The front desk was able to accommodate our early check in. They were courteous and attentive. The property was clean, modern, and everything was new. Our room was comfortable and spacious. Breakfast was great! The breakfast attendants were super attentive and were busy making sure there was always food and that the area was clean. Very convenient location to Disneyland and downtown Disney. I would highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r480051297-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>480051297</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Experience </t>
+  </si>
+  <si>
+    <t>We stayed here a week after they opened. There were a few kinks to work out, but the staff was excellent and made sure everything was taken care of. Rooms with kitchens are great for families on vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here a week after they opened. There were a few kinks to work out, but the staff was excellent and made sure everything was taken care of. Rooms with kitchens are great for families on vacation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r454598684-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>454598684</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Early suprise but great recovery</t>
+  </si>
+  <si>
+    <t>We were originally book at Staybridge on Manchester Avenue but when we arrived it was closed for renovations. We headed over to Staybridge At the Park and they were fantastic in accommodating us even though we weren't booked there. They went out of their way to ensure we were all sorted and comfortable during our stay. Great location to Disneyland</t>
+  </si>
+  <si>
+    <t>January 2017</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1378,1795 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>143</v>
+      </c>
+      <c r="X14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>157</v>
+      </c>
+      <c r="X16" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>165</v>
+      </c>
+      <c r="O17" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>166</v>
+      </c>
+      <c r="X17" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>166</v>
+      </c>
+      <c r="X18" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L19" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>181</v>
+      </c>
+      <c r="X19" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>189</v>
+      </c>
+      <c r="X20" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>197</v>
+      </c>
+      <c r="X21" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>206</v>
+      </c>
+      <c r="X22" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>214</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>215</v>
+      </c>
+      <c r="X23" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" t="s">
+        <v>220</v>
+      </c>
+      <c r="K24" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" t="s">
+        <v>222</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>214</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>215</v>
+      </c>
+      <c r="X24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" t="s">
+        <v>227</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>214</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>215</v>
+      </c>
+      <c r="X25" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" t="s">
+        <v>231</v>
+      </c>
+      <c r="K26" t="s">
+        <v>232</v>
+      </c>
+      <c r="L26" t="s">
+        <v>233</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>234</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>235</v>
+      </c>
+      <c r="X26" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>239</v>
+      </c>
+      <c r="J27" t="s">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s">
+        <v>241</v>
+      </c>
+      <c r="L27" t="s">
+        <v>242</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>234</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>235</v>
+      </c>
+      <c r="X27" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" t="s">
+        <v>187</v>
+      </c>
+      <c r="L28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>234</v>
+      </c>
+      <c r="O28" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>235</v>
+      </c>
+      <c r="X28" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>255</v>
+      </c>
+      <c r="X29" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J30" t="s">
+        <v>260</v>
+      </c>
+      <c r="K30" t="s">
+        <v>261</v>
+      </c>
+      <c r="L30" t="s">
+        <v>262</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>263</v>
+      </c>
+      <c r="O30" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_718.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_718.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>AMARENDRA  T</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>Stayed for 4 nights at this hotel. While this place is close to Disneyland, you need a shuttle or Uber to reach the park. The hotel is neat with large spacious rooms. There is no restaurant in the hotel but you have a fully equipped kitchen with microwave, stove, dishwasher and fridge. Staff is minimal and pool is not well maintained. Breakfast is usual affair but they start picking up stuff as soon as the breakfast end time is reached (unlike other Holiday Inn properties). The Hotel has a convenience store located at the opposite gas station but no restaurants or eating joints around. Good place for a family stay.More</t>
   </si>
   <si>
+    <t>marlene1999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r591771759-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -202,6 +208,9 @@
   </si>
   <si>
     <t>We we’re up since 3:00 a.m. to fly from Texas to Orange County, we arrived at the hotel at 9:15 and to my amazement our room was ready. Dana said we could grab breakfast before they shutdown  at 9:30. What a blessing we were able to eat and rest for a bit before heading to Disneyland. Dana was always willing to help however she could. The evening crew were just helpful. The hotel is an easy walk to Disneyland and we would take Lyft back to the hotel in the evenings, never had to rent a car! The breakfast was very very good. Monday Tuesday Wednesday they had a light dinner as well, another way I saved money. The room was clean and comfy bed. Highly recommend, good location, good food close to the park. Also, we were able see the fireworks from our window better view than when we were at the park.More</t>
+  </si>
+  <si>
+    <t>RacCay</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r585904418-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
@@ -228,6 +237,9 @@
 So, I wrote an email to the hotel reservation desk and received a reply two days, denying that they had charged me twice but the fees were held back. Obviously, the person replying to the email was not reading the emails or looking at the screenshot I had sent. The charges were made on two occasions within the same day and have already been reflected on my bills! Anyway, there was NO Further reply when I made an official complaint on the lack of professionalism on the reply from the hotel. I have expected better from the IHG hotel chain. 
 On 1st of June, when my family and I arrived at the hotel, the gentleman at front desk, whose name I recognised as the person replying the email, told me that the fees have been waived and I should check with my bank a few days later. There was NO apology, not a word of sorry.
 That...I had booked this hotel way back in October 2017 for our stay in June for an Advance payment deal. I’m Glad the stay was only for just one night.Two weeks before the trip, I’d noticed that my credit card was being charged twice. Phone up the front desk from Singapore. The lady on the line was apologetic and told me that someone from the day shift would be able to check and call me back on my phone. No one did.So, I wrote an email to the hotel reservation desk and received a reply two days, denying that they had charged me twice but the fees were held back. Obviously, the person replying to the email was not reading the emails or looking at the screenshot I had sent. The charges were made on two occasions within the same day and have already been reflected on my bills! Anyway, there was NO Further reply when I made an official complaint on the lack of professionalism on the reply from the hotel. I have expected better from the IHG hotel chain. On 1st of June, when my family and I arrived at the hotel, the gentleman at front desk, whose name I recognised as the person replying the email, told me that the fees have been waived and I should check with my bank a few days later. There was NO apology, not a word of sorry.That was not the end, when we got to our room, and I spotted “booger” on the TV program list.... (yikes). The bed on the left, had obvious speckles of blood on the inner sheet, as well as one of the pillows..... it was disgusting! All of us were suffering from Jet-lag and I really couldn’t spare the effort to call up the front desk for action. At around 9.30pm at night, we were woken up by the loud fireworks from Disneyland... the sound proofing was really bad. On check out at 5am the next morning, I told the polite lady at the front desk, that we were not very pleased with the service. I logged into my bank account and showed her my credit card statement, and the amount that was refunded to my card. I have to be at the losing end as there was foreign exchange loss for a mistake, that she told us, was made by the front desk. Apparently, the card was charged by someone in the day and again at the later part of the day by mistake. I told her that from the time we had checked in, no one had actually apologised and I have to bear the exchange losses! Perhaps, A simple word of apology would have made me feel better and I have to remind the hotel of a completely unnecessary mistake. She was professional and apologised profusely but It was too late. If there is a time that we are coming back to Anaheim for holiday again, it is highly unlikely we will be staying here. More</t>
+  </si>
+  <si>
+    <t>Maizee</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r575850822-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
@@ -269,6 +281,9 @@
 On Mon, Tues, Wed they serve food in the evenings as well. We had the Tacos...I'm checking out today after 3 nights with my family of 6. I booked this hotel because of the price and location to Disneyland. First off, I didn't book this hotel because of the pool. I knew from the pictures it was nothing great. However I was shocked at how cold it was, and disappointed that my kids couldn't enjoy it on a hot afternoon breaks from Disney (and these are Canadian kids who swim in lakes all summer). Also no hot tub, so even if you did take the plunge you couldn't warm up afterwards. If you have kids who love to swim on  vacations consider a hotel with heated pool. Rooms: 1 bedroom suite was handy for a family.  Very clean. The kitchen area allowed us to have snacks and drinks in the room which was nice. Sofa bed isn't very comfortable so don't plan on anyone other than small children sleeping on it. Hotel is not very sound proof. I'm in the living room right now at 7am listening to babies scream, people talking and hotel room doors banging. Breakfast &amp; Social: The breakfast was typical for a hotel breakfast, eggs and either bacon or sausage along with cereal, waffles, muffins, breads and some fruit, etc. Very handy with kids, and a nice to eat quickly before heading to the park. On Mon, Tues, Wed they serve food in the evenings as well. We had the Tacos one night and it was enough to hold everyone over until a later dinner. Location: you could walk to Disneyland, but it's about 35min. That's too far for us with little kids, we took Uber to the park for about $10. And it was easy to get a cab on the way back each night. Tip: go to the downtown Disney entrance in the morning to avoid the huge security lines. There is a nice free laundry room here that was very handy. Overall this was an okay place for the price per night.  More</t>
   </si>
   <si>
+    <t>Minerva S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r564666594-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
   </si>
   <si>
     <t>This hotel is very convenient if you are using the parking structure to go into Disneyland.   You can also walk about a mile to get to Disneyland if you stay in this hotel.  Their rooms are great but their elevator has issues.   The floors aren't described at all.  Good luck trying to figure out which of the 2 elevators takes you to the lobby.   The elevators are also very slow and the service people use them.   We waiting about 20 minutes for ours.  The breakfast is very good.More</t>
+  </si>
+  <si>
+    <t>Anderson L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r562376712-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
@@ -329,6 +347,9 @@
 We get to the hotel, after a 6.5 hour drive, to hear they "over booked" and we were put in 2 rooms. Obviously that doesn't work, we aren't going to put our under 5 year...I will start with the positives. I love Staybridge Suites in general and have stayed at these hotels many times. The hotels are clean, the rooms are very nice, the breakfast buffet and the evening "snacks"  are good and convenient when on a trip. After staying at numerous Staybridge Suites, including the older one in Anaheim, we decided to try this one since it is within "walking distance" of Disneyland. If you consider a 40 minute walk within walking distance, then it absolutely is within walking distance. In reality, after walking all over the parks and Downtown Disney, walking back to the hotel was brutal. The option to go back and rest in the afternoon before going back to the park in the evening was out the door with this hotel.To make matters worse, we booked 5 months in advance. We booked a 2-bedroom suite (which is what we always book with these hotels, they are amazing and well worth the cost). What we do is have the kids in one room and my husband and I stay in the other room. It's nice because there is a little living-room and kitchen that we can congregate in when someone is napping or getting ready. We get to the hotel, after a 6.5 hour drive, to hear they "over booked" and we were put in 2 rooms. Obviously that doesn't work, we aren't going to put our under 5 year old kids in a room across the hall. So my husband and I had to stay in 2 separate rooms, each of us with a kid, and walk between rooms to share the toiletries we packed together. I explained to the staff and was told there was nothing they could do for us. I decided to look for another hotel and came across the Staybridge in the search engine. I looked for the 2-bedroom suite to see if it would pop up, and it didn't. I looked for it all the way to October and somehow it isn't offered at all! Pretty sure we were lied to about this room's existence. I asked to talk to the manager when we were told about rooms on the 1st day, and was told he would call us in the morning. He never did. He never tried to contact us about the matter, bad customer service on his part. So on our last day, literally on our way out of the hotel, I asked to talk to the manager about the matter. One would think the manager would instantly walk out to talk to us and apologize while explaining the situation. Not this manager, he made us wait for him for 10 minutes. When he walked in through the door from outside, I thought he was another employee as he walked up and acted like I was in his way. So I moved out of the way saying "hello" at the same time. He said "can I help you?" I said, "we are waiting to speak with the manager." He said "that's me." Call me old fashioned (I am 31 years old) but I would think the manager would walk up with a smile, put his hand out, and greet his customers while telling us his name. I have no idea what his name even is to this day! He was rude, he acted like we had no reason to be upset, he didn't smile, he acted like we were a bother to him. I wasn't rude t him by the way, I just wanted to talk to him about the matter. To top it off, we recommended this hotel to a friend who also booked the 2-bedroom suite for the same week we were there, and her room was also "over booked' AND she was double charged!To sum it up, Staybridge Suites is a great hotel. We will stay with this hotel chain again. If in the Disneyland area, it will be the other Staybridge Suites hotel, the one on Manchester Ave, the manager there is so friendly and very welcoming! The Staybridge Suites Anaheim at the Park has terrible customer service; I wouldn't risk booking with this place.More</t>
   </si>
   <si>
+    <t>Malua H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r559686051-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -350,6 +371,9 @@
     <t>Last weekend we took a 3 days get away to the Happiest Place on Earth, and every time we visit Disneyland we'll always stay at the one of the Disneyland hotels.But this time we didn't really plan this trip so the dates of our trip all the Disney hotels were fully booked. So we have to start looking for another hotel, we saw the Staybridge and it said it's a new hotel just opened in 2016, we decided to give it a try , sure glad we did. Staybridge is in a great location just few minutes from the park getting uber was very easy. The hotel staff are very friendly and helpful. Great room, very comfortable bed and the kitchen are was very nice. They have good breakfast at the lobby in the morning and food for dinner at night. I was very impress with this hotel. If you are looking for a place to stay while visiting Disneyland with the family, pick Staybridge you won't be sorry. More</t>
   </si>
   <si>
+    <t>Retired-math-teacher</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r559668488-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -365,6 +389,9 @@
     <t>We stayed three nights last week and were quite pleased with this new property. the desk staff and breakfast staff were pleasant and kept the food stocked. The dining tables are sufficient to handle the crowds, especially if you go early. There is just one elevator so it can take a few minutes to go up or down, but not bad. The King Suite is spacious and equipped for cooking. The walk-in shower has a great shower head. Lyft came on 4 minutes notice, up from the Disney area, and was only $20 to John Wayne Airport in Santa Ana (KSNA). Riding the ART bus to the park was great, only $5 for a 3 day senior pass. Get passes in lobby or use Token Transit app. Be careful of the hotel internet for sensitive data; my credit card was hacked and used at "Boost Mobile" first day after using Token Transit on cell phone via hotel internet! Not sure which was at fault, but Chase VISA declined the fraudulent charge and cancelled card immediately with no charge. Have another card to use.More</t>
   </si>
   <si>
+    <t>Don B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r556972528-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -383,6 +410,9 @@
     <t>Got to Disneyland a day early so we just spent the night there before going to our other hotel. The only advantage the other hotel had over the Staybridge is that it offered early entry into the Disney parks. This hotel had a good location for Disneyland, but didn't offer a shuttle. There is bus transportation near the hotel. The hotel is new,clean and the people were friendly and helpful. They have visible security personnel roaming the area, which I liked. They have a parking structure that is a little tight on the parking spots and you have to pay a parking fee. I asked if I could leave the car there after I checked out and went to Disneyland. They said I could leave it at least until 3:00 PM, as long as they had room for incoming guests. I wished I had stayed there instead of Paradise Pier.More</t>
   </si>
   <si>
+    <t>ppol37</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r545072540-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -411,6 +441,9 @@
   </si>
   <si>
     <t>Did I mention free hot breakfast? Eggs (and they’re good!) bacon or sausage depending on the day. Plus oatmeal, cereals, breads and muffins, reasonably good coffee and more. I love it so much I’m writing this while I’m still eating.Another great feature is “The Pantry,” a little nook with snacks, cold drinks, ibuprofen, even frozen dinners you can heat in your microwave if you arrived late and hungry or get a midnight craving.The room is great, spacious, full kitchen including microwave and full size fridge. The staff is friendly and helpful. We are wowed!More</t>
+  </si>
+  <si>
+    <t>RollPositive</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r544489993-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
@@ -458,6 +491,9 @@
 They have several big screen TVS which was nice as the world series was playing during our stay. They have one room that looks like a home den...We had booked at another hotel and changed to Staybridge @The park at the last minute.We touched base with Kevan White | Asst. General Manager and he assured us he could meet our needs and understood what we needed for this special anniversary stay.We arrived mid day and greeted by many smiling staff but especially nice was Ray at the front desk! We got checked in and with minutes we had our key and off to check out our room.The hotel is new so everything is fresh and clean. Many of the hotels in Disney area are old and worn. The hotel has a calm color scheme vs everything being Disney! We got to our room and it was nice and big two queen beds, corner room with a view of Ball rd. Full kitchen and big bathroom.Other perks include a small play pool great for kids,a nice fire pit on cold anahim nights.But the best thing was there social hour at night. It was free and the food was good.1st night was quesadillas, with a toppings bar and free softdrinks and beers!2nd night was fresh grilled hamburgers! Combine this with the free breakfast and you have two of the three meals for your day!They have several big screen TVS which was nice as the world series was playing during our stay. They have one room that looks like a home den with big soft couches for watching TV.The walk to Disney was a bit far and we had seen reviews is noted as a short walk but on our day it was 105 in Oct and it was crazy hot. We would recommend the Shuttle picks up in the parking lot or the city bus #83 picks up 1/2 block to the west and its only $2.00 drops you off at the Disneyland entrance.Staybridge offers free washer and dryers downstairs you only pay for laundry soap.Disneyland started not doing fireworks during the week and only weekends but I am sure they can be seen in front of the hotel.The room was very comfortable and beds are new and comfortable also.We will definitely stay here again on our next trip!Great Job Kevan and Ray and the whole staff @StaybridgeMore</t>
   </si>
   <si>
+    <t>tmerritt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r542893983-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -482,6 +518,9 @@
     <t>I really love this hotel. It’s a suite and very big. It was my first time in Anaheim. It’s right around the corner from Disneyland. No reason to stay at the expensive hotels on Disney property. We stayed two days and had a great view of the fireworks at night. The hotel has a full kitchen and stove included. They serve breakfast in the morning and dinner at night. We used a Uber for the first time it’s great. I will use it again. I will stay here again it’s nice.More</t>
   </si>
   <si>
+    <t>Jeannette S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r536767565-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -506,6 +545,9 @@
     <t>very good front desk service by Pam.  She is very helpful in getting whatever my out of town family visitors needed.Always busy hotel property.  Family visits four times a year , the suites are nice and gives a family a chance to stop at the store to have some snacks, beverages, and water on hand.  The breakfast is very good for a hotel.More</t>
   </si>
   <si>
+    <t>filipinatraveler1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r535255477-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -522,6 +564,9 @@
   </si>
   <si>
     <t>We visit Disneyland atleast once a year, this is our first stay at staybridge suites at the park... We had the 1 bedroom suite with a living room and kitchen. Perfect for 5 of us. We stayed 3 nights... the most that impressed me the most is the cleanliness of the room, and the breakfast! They have many selections like toast, bagel, muffins, fruits, bacon, eggs, cereal and waffle maker. Everything was awesome! They had a laundry area in the basement, for free! Just make sure to bring laundry detergent.The check in was quick, self parking and close to Disneyland. We walked to downtown Disney and it took about 15 min. We used uber coming home and going to Disneyland again the next day, and for only $5. Overall the stay was great. Everyone from front desk, housekeeping and breakfast crew was super nice. I would definitely stay here again.. More</t>
+  </si>
+  <si>
+    <t>TRIPSTER077</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r534456115-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
@@ -552,6 +597,9 @@
 The front desk staff were so nice. Kevan and Liliana were a delight to deal with. Very pleasant and did whatever they could with a smile on their face. We checked in early and although our rooms weren't ready, they were very polite and tried to speed things up. If you stay on a weekend...Our family of 11 recently stayed at Staybridge Suites Anaheim At The Park. we were  in town for a wedding and a day at Disneyland. We reserved two 2 bedroom suites and one studio suite for my husband and I. The 2 bedroom suites worked perfectly for our two children and their young families. Our studio suite was very spacious and suited our needs just fine. The hotel opened in April of this year so it's in great condition. The sofas weren't the most comfortable. Maybe they need breaking in! Breakfast was good. There is fruit, muffins and bagels, oatmeal, cereal, sliced cheese, scrambled eggs and a meat side. You can also make your own waffles, As you can tell, plenty of food and the staff couldn't have been nicer! They kept everything filled and the tables cleaned off. I felt so guilty because we had a couple of toddlers that made the table and floor area look like a bomb had gone off. I offered to sweep the floor, but the staff laughed and said they were happy to take care of the mess. The front desk staff were so nice. Kevan and Liliana were a delight to deal with. Very pleasant and did whatever they could with a smile on their face. We checked in early and although our rooms weren't ready, they were very polite and tried to speed things up. If you stay on a weekend like we did, make sure you let the front desk know if you want maid service. Otherwise, there is no service on the weekends. Downtown Disney was about a 15 minute walk and another 15 minutes from there to Disneyland. Our security check was minimal considering we went to Disneyland on a Saturday. My only complaint has nothing to do with staff or the rooms. The elevator is awful when everyone is trying to leave for Disneyland. It was a ride in itself to make it from the 3rd floor to the lobby. From 3rd we went to 4th, down to the parking level, up to the 3rd floor, down to the 2nd floor, up to the 4th floor, down to the basement before going up to the lobby. It took us 10 minutes to make it to the lobby. Just use the stairs, right? No stairs by the elevator for going up and down the floors. There are two different areas where fire escape stairwells are located at the end of certain halls. It's ok if you want to go down to another floor, you just can't get to the lobby that way and the doors lock behind you. No key access. One stairwell ends at the parking area the other one takes you outside by the driveway entrance. I've never seen anything like this. I've never been in a hotel that does have stair access by the elevator. I don't know how the architect didn't think this one through and provide stair access. I do hope they regulate the elevator. Bottom line: we would more than likely return, we just don't look forward to dealing with the elevator.More</t>
   </si>
   <si>
+    <t>stevelZ8388HW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r523616585-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -579,6 +627,9 @@
     <t>Several things I need improvement in comparison to other properties that are under the Staybridge name. This particular property is difficult to locate unless you know exactly where it is since there is no signage near the street it is easy to drive pass.  Once we located the property, they would not allow us to check in at 1 PM and told us that we had to wait that check in was it 3 PM. We waited until  it was time to check in only to find out the rooms did not have keys that worked so we had to have maintenance allow us into our rooms until they can figure out the problems.   If we left her rooms, we had to bother them to allow us back in our rooms each time. They did offer compensation after we asked which was waving the $18 per day parking fee since they charge for parking on their own property. They have a business center near their lobby but it is completely worthless since the printer doesn't have paper  nor does it have any toner. We Asked the front desk if they could replace the toner since we were trying to print our boarding passes prior to going to the airport and with their confused look on their faces, they concluded they simply didn't know if they had toner but they didn't bother to check either.   This is a typical over priced...Several things I need improvement in comparison to other properties that are under the Staybridge name. This particular property is difficult to locate unless you know exactly where it is since there is no signage near the street it is easy to drive pass.  Once we located the property, they would not allow us to check in at 1 PM and told us that we had to wait that check in was it 3 PM. We waited until  it was time to check in only to find out the rooms did not have keys that worked so we had to have maintenance allow us into our rooms until they can figure out the problems.   If we left her rooms, we had to bother them to allow us back in our rooms each time. They did offer compensation after we asked which was waving the $18 per day parking fee since they charge for parking on their own property. They have a business center near their lobby but it is completely worthless since the printer doesn't have paper  nor does it have any toner. We Asked the front desk if they could replace the toner since we were trying to print our boarding passes prior to going to the airport and with their confused look on their faces, they concluded they simply didn't know if they had toner but they didn't bother to check either.   This is a typical over priced low value property because of the fact it is near the Disneyland entrance since we have had better luck at other Staybridge suites.  The result of hiring inexperienced young employees absolutely shows at this hotel.More</t>
   </si>
   <si>
+    <t>momof4inaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r522675527-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -600,6 +651,9 @@
     <t>Stayed twice at this hotel this summer. Both times were a great stay. We walked to Disneyland several times. 2000 steps to the back side of Downtown Disney and another 1000 to the gate. We faced the fireworks show and had a great view every night. Breakfast was good staff was super friendly. We'll be back!More</t>
   </si>
   <si>
+    <t>Lisa B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r519122596-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -624,6 +678,9 @@
     <t>We enjoyed our stay very much... for the first several days. The staff was so friendly, breakfast was hot and constantly being replenished. Everything was clean and the pool, though small, was great. But on the last two days of our stay, housekeeping never showed up. The first time we thought it was because they were running late and we were in our room in the late afternoon, taking a break from the parks. We called the front desk when we got back, told them we were missed, and exchanged our used towels. The next day, housekeeping was literally cleaning the room next door as we left. Came back after a late park night - no housekeeping again! While it's not the end of the world, it was frustrating to have to deal with these errands after a long day, late night and having to leave for a long drive home early in the morning. Other than that inconvenience, they really did a great job!More</t>
   </si>
   <si>
+    <t>Mikreyn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r512786546-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -648,6 +705,9 @@
     <t>We just returned from a family Disney vacation. Since I am an IHG Spire member I booked reward nights and could not have been more satisfied. Quick caveat, the elevator can be slow.. Ok that it is out there, when I arrived I was greeted by Kevan and he could not have been more helpful. We got in a bit early and he gave us a great recommendation where we could hang out for a bit and we had fun. Our room was comfortable and had everything we needed. The breakfast was great, and there was new choices every morning. It can be a bit chaotic before the guests going to the park are there but they have lots of staff taking care of the area. Parking was easy. I would stay there again, and recommend it for people that want to be near the park or I 5!More</t>
   </si>
   <si>
+    <t>Tracy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r511981120-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -672,6 +732,9 @@
     <t>Great hotel for family of 5 or less. Very good location to Disney Land and other areas.  Very nice hotel and people works there are very friendly. We enjoyed our stay there for 4 nights. The room is very clean. The pool is also clean. It's nice that they have  social time in the evening for gathering.More</t>
   </si>
   <si>
+    <t>Mameex3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r503345108-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -699,6 +762,9 @@
     <t>We went to this hotel due to problems we had at the one we were staying at. Well we really enjoyed it. The studio has a good setup, its fresh, spacious. Breakfast is ok. Pretty much the same food everyday but ok. Evening snacks are good. My kids enjoyed the pool. Quiet hotel. Nice and friendly staff. Housekeeping didn't go to our room everyday but as soon as we would call they would send someone. Overall we enjoyed our 5 night stay. Also, we weren't there to go to Disneyland. I did see people walking but I personally think it's far to walk there and that's because I have stayed at a hotel that took no longer than 5 minutes to get there.More</t>
   </si>
   <si>
+    <t>alexngm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r496392921-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -726,6 +792,9 @@
     <t>This newer hotel is nice for a large family. I stayed in a 2 queen room with sofa pull out and it was spacious for 2 adults and 3 children. They had a good, free breakfast in the morning. There is a small pool with a firepit and overall a clean hotel. The few main negatives are they don't have a hotel shuttle, it is not a convenient to walk to the parks and the elevator takes awhile as there is only 1 for the whole building. There is a city bus near the hotel, but we ordered an Uber for $10 one way for 5 people. It was cheaper than the city bus and it dropped us right off. I would stay here again.More</t>
   </si>
   <si>
+    <t>lizR2685YT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r496022440-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -742,6 +811,9 @@
   </si>
   <si>
     <t>This hotel is just ok I read reviews before booking and felt comfortable in my choice. I will not stay here again or recommend it. I will not go into to many details but just beware it is not as good as I thought. Second night we could not get fresh towels very angry about thisMore</t>
+  </si>
+  <si>
+    <t>samismac</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r495919899-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
@@ -767,6 +839,9 @@
 The lobby area is very spacious and has a very nice breakfast area where they serve a good morning hot breakfast. We ate there both days and it...We booked this hotel as a Priceline Express Deal and we were very pleased. Overall the hotel is great. It is new so all of the space is very clean. When we arrived we were greeted by two very nice desk clerks who checked us in and proceeded to let us know that the fireworks would be going off out front in 2 minutes if we would like to see them. We walked outside to the front parking lot and the fireworks started. It was perfect! We then checked into our room which was a very spacious 2 queen with a full size sofa bed. The room was beautiful and faced the pool area so it was quiet outside. The rooms are designed for long term guests so they are equipped with a full sized refrigerator, stove top, dishwasher, etc. There is also a full sized coffee maker for those who like a lot of coffee- I was fine with one cup. The beds were very comfortable and came with enough pillows and bedding to satisfy both my daughter and I who like to sleep with several pillows. We didn't use the pool, but they have an outside pool area that has cushioned seats and a small lounge area with a firepit.The lobby area is very spacious and has a very nice breakfast area where they serve a good morning hot breakfast. We ate there both days and it was fine.The gym is small but has at least one of everything you need. We did not use it but people were in there when we got back from Disneyland at 11pm.There is also a small enclosed sitting area near the breakfast area/lobby which looked like a nice place to relax.Overall I would absolutely recommend this hotel. It is less than 1 mile to Downtown Disney, or less than a $10 Lyft ride-- which is what we did as we took the train to Anaheim. Some of the small cons- which didn't really bother us---Air conditioning is a little loud. It's not central so the box is a little noisy. I slept through it but it's good to bring ear plugs if you are a very light sleeper. That being said we could also hear the people above us stopping around in the morning. This isn't really anyone's fault but was a little disturbing in the morning.The other thing is the fact that they don't have normal housekeeping service during the weekend. They post this in the room so it is expected, but being used to daily housekeeping service it was odd to come back with the beds not made up.Other than those minor things everything was fantastic! Thank you to the hotel for great service and an enjoyable stay. More</t>
   </si>
   <si>
+    <t>Johnny F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r488010436-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -792,6 +867,9 @@
   </si>
   <si>
     <t>New hotel right next to Disneyland Park. Beautiful rooms, friendly and knowledgeable staff, walking distance to tons of great restaurants and the park, great breakfast, gorgeous lobby, meeting rooms, and a gym. This hotel is ideal for a family trip. My wife and I highly recommend this property over others in the Anaheim area, and we have stayed in plenty of them! Be sure to ask for a "fireworks view" room and check out the fire pit lounge area by the pool. More</t>
+  </si>
+  <si>
+    <t>FLCATRIPS</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r486940261-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
@@ -820,6 +898,9 @@
 The room had cleanliness and maintenance issues. The water in the shower would not stay warm as it kept falling to hot. This was not fun as I had to hold the faucet while my...I stayed at this hotel Saturday night. What a terrible experience.It started by me calling Saturday around 12:30 to see if they could check and see if a room was available early. After about 20 rings Ray the front desk clerk picks up. I ask him as an IHG rewards platinum member can you check and see if a room is available early and he says nope, 3 pm. We have a big group. I am guessing from his voice and the number of rings that he is stressed with a big group. I tell my wife that we will check one more time before going to the theme park. I pull up about an hour later and go into the hotel to find the lobby empty and no one around. After waiting 5 minutes the clerk Ray runs over. I ask again and he says nope, 3 pm or I can give you a call. He brought up the group again.I was upset that he did not even offer to call housekeeping and check. Check out was 11:00. He did not care about anything but that group. He could have called and just tried to make effort. He had a passive attitude. The room had cleanliness and maintenance issues. The water in the shower would not stay warm as it kept falling to hot. This was not fun as I had to hold the faucet while my 9 year old took a shower. I was worried that it would burn him. I used a washcloth to try and hold the faucet up as it kept falling to hot. The light above the sink stopped working in the morning.The room was not as clean as it should have been. See pictures of the stains throughout. I would have looked the other way but there were too many bigger issues.The Master power switch shuts off the alarm clock.The morning summarizes everything as the middle school group took over the elevator and breakfast. We skipped breakfast due to the crowd, let Ray know about the maintenance issues and walked up the ramp to the car. It was a bad experience all around.I lodged a complaint with the hotel and received an adequate response. It was explained to me that they have a strict policy of 3 pm with no flexibility. This is due previous guest issues because of the groups taking the rooms. As I stated this is a team hotel and not for regular travelers.More</t>
   </si>
   <si>
+    <t>AGTravel3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r485794449-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -835,6 +916,9 @@
     <t>This hotel was excellent. The service was top notch. The front desk was able to accommodate our early check in. They were courteous and attentive. The property was clean, modern, and everything was new. Our room was comfortable and spacious. Breakfast was great! The breakfast attendants were super attentive and were busy making sure there was always food and that the area was clean. Very convenient location to Disneyland and downtown Disney. I would highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>Billy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r480051297-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -860,6 +944,9 @@
   </si>
   <si>
     <t>We stayed here a week after they opened. There were a few kinks to work out, but the staff was excellent and made sure everything was taken care of. Rooms with kitchens are great for families on vacation.More</t>
+  </si>
+  <si>
+    <t>Brendan K</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10198308-r454598684-Staybridge_Suites_Anaheim_At_The_Park-Anaheim_California.html</t>
@@ -1382,43 +1469,47 @@
       <c r="A2" t="n">
         <v>65002</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1436,50 +1527,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65002</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1493,50 +1588,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65002</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1550,50 +1649,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65002</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1607,50 +1710,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65002</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1666,56 +1773,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65002</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1733,56 +1844,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65002</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>95</v>
       </c>
-      <c r="K8" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>89</v>
-      </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1796,50 +1911,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65002</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>95</v>
       </c>
-      <c r="K9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>89</v>
-      </c>
       <c r="O9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1859,41 +1978,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65002</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
@@ -1912,50 +2035,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65002</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1967,56 +2094,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65002</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2034,56 +2165,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65002</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2095,56 +2230,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="X13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65002</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2156,56 +2295,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65002</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2217,56 +2360,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65002</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2284,56 +2431,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="X16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65002</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2351,56 +2502,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="X17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65002</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2412,56 +2567,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="X18" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65002</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="J19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2473,56 +2632,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="X19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65002</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2540,56 +2703,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="X20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Y20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65002</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>211</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="K21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2605,56 +2772,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="X21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="Y21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65002</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2666,56 +2837,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="X22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="Y22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65002</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>230</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="J23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="K23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2727,56 +2902,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="X23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="Y23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65002</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="J24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="K24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -2792,56 +2971,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="X24" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="Y24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65002</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>247</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="J25" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2853,56 +3036,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="X25" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="Y25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65002</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>253</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="J26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="K26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -2914,56 +3101,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="X26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="Y26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65002</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>263</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="J27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="K27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -2975,56 +3166,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="X27" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="Y27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65002</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>270</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="J28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="K28" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="O28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3036,56 +3231,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="X28" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="Y28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65002</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>276</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="J29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3097,56 +3296,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="X29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="Y29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65002</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>286</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="J30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="K30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="L30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="O30" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3164,7 +3367,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
